--- a/medicine/Pharmacie/Doramectine/Doramectine.xlsx
+++ b/medicine/Pharmacie/Doramectine/Doramectine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La doramectine (Dectomax) est un médicament vétérinaire utilisé pour le traitement et le contrôle des parasitoses internes (par des nématodes intestinaux et pulmonaires), les tiques et la gale (ainsi que d'autres ectoparasites). La doramectine est un dérivé de l'ivermectine. Elle est disponible sous deux formes galéniques : en injection et en solution topique de 5 mg·ml-1, l'injection conduisant à une fixation dans les tissus adipeux et une biodisponibilité plus élevée que la solution topique.
